--- a/mutabaah yaumiyah.xlsx
+++ b/mutabaah yaumiyah.xlsx
@@ -14,9 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>MUTABAAH YAUMIYAH</t>
+  </si>
+  <si>
+    <t>Bulan :</t>
+  </si>
+  <si>
+    <t>Shalat Wajib Tepat Waktu</t>
+  </si>
+  <si>
+    <t>Shalat Subuh</t>
+  </si>
+  <si>
+    <t>Shalat Dzuhur</t>
+  </si>
+  <si>
+    <t>Shalat Ashar</t>
+  </si>
+  <si>
+    <t>Shalat Maghrib</t>
+  </si>
+  <si>
+    <t>Shalat Isya</t>
+  </si>
+  <si>
+    <t>Shalat Dhuha</t>
+  </si>
+  <si>
+    <t>Shalat Rawatib</t>
+  </si>
+  <si>
+    <t>Sebelum Subuh</t>
+  </si>
+  <si>
+    <t>Sebelum Dzuhur</t>
+  </si>
+  <si>
+    <t>Sebelum Ashar</t>
+  </si>
+  <si>
+    <t>Sebelum Maghrib</t>
+  </si>
+  <si>
+    <t>Sebelum Isya</t>
+  </si>
+  <si>
+    <t>Menghafal Quran</t>
   </si>
 </sst>
 </file>
@@ -29,8 +74,16 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
-    <font>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -376,12 +429,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,154 +555,169 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -951,21 +1034,697 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="25.8571428571429" customWidth="1"/>
+    <col min="2" max="32" width="3.28571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:AF5" si="0">B5+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Z5" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AB5" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AC5" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AD5" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AE5" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AF5" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="B6:AF6"/>
+    <mergeCell ref="B13:AF13"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" scale="71" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>